--- a/biology/Histoire de la zoologie et de la botanique/Darwin_(unité)/Darwin_(unité).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Darwin_(unité)/Darwin_(unité).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Darwin_(unit%C3%A9)</t>
+          <t>Darwin_(unité)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le darwin, de symbole d, est une unité de mesure servant à l'estimation d'un changement dû à l'évolution. Elle a été inventée par J.B.S. Haldane en 1949[1]. Un darwin est égal à environ 2,718 changements d'un caractère en un million d'années. Haldane l'a nommée en l'honneur de Charles Darwin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le darwin, de symbole d, est une unité de mesure servant à l'estimation d'un changement dû à l'évolution. Elle a été inventée par J.B.S. Haldane en 1949. Un darwin est égal à environ 2,718 changements d'un caractère en un million d'années. Haldane l'a nommée en l'honneur de Charles Darwin.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Darwin_(unit%C3%A9)</t>
+          <t>Darwin_(unité)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Équation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équation pour calculer un changement dû à l'évolution en darwins (
         r
@@ -566,7 +580,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Darwin_(unit%C3%A9)</t>
+          <t>Darwin_(unité)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -584,7 +598,9 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette mesure est surtout utile en paléontologie, où les changements macroévolutifs des fossiles peuvent être comparés. C'est une mesure indirecte, car elle s'appuie sur des données phénotypiques plutôt que des données génotypiques. Le darwin mesure seulement l'évolution d'un caractère plutôt qu'une lignée : la plupart des caractères changent à un rythme différent dans une lignée. L'évolution des caractères peut cependant servir à inférer indirectement l'évolution de lignées.
 </t>
